--- a/doubleData.xlsx
+++ b/doubleData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="60">
   <si>
     <t>TEST</t>
   </si>
@@ -93,6 +93,9 @@
     <t>1.61</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>CVF/Pré</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
     <t>4.85</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Identification:</t>
   </si>
   <si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>1.45</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>3.96</t>
   </si>
 </sst>
 </file>
@@ -538,54 +556,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -629,50 +647,6 @@
         <v>23</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3">
         <v>0</v>
       </c>
     </row>
@@ -712,42 +686,42 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -760,7 +734,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -789,13 +763,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -821,9 +795,38 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
@@ -834,7 +837,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -863,13 +866,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -895,9 +898,38 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
@@ -908,7 +940,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -937,13 +969,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -969,12 +1001,44 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -985,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1014,13 +1078,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1046,12 +1110,44 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>

--- a/doubleData.xlsx
+++ b/doubleData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="79">
   <si>
     <t>TEST</t>
   </si>
@@ -93,7 +93,7 @@
     <t>1.61</t>
   </si>
   <si>
-    <t>2</t>
+    <t>blablabal</t>
   </si>
   <si>
     <t>CVF/Pré</t>
@@ -199,6 +199,63 @@
   </si>
   <si>
     <t>3.96</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>24/08/2011</t>
+  </si>
+  <si>
+    <t>08.01.24</t>
+  </si>
+  <si>
+    <t>145 cm</t>
+  </si>
+  <si>
+    <t>51.0 kg</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>5.11</t>
   </si>
 </sst>
 </file>
@@ -556,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,44 +623,44 @@
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -647,6 +704,138 @@
         <v>23</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
     </row>
@@ -657,15 +846,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -696,34 +885,130 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>24</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>54</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="J2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -734,15 +1019,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -797,13 +1082,16 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>24</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -827,6 +1115,67 @@
         <v>56</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -837,15 +1186,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -900,36 +1249,100 @@
       <c r="H2" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>24</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
@@ -947,8 +1360,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1010,33 +1423,97 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>24</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1049,15 +1526,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1119,35 +1596,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>59</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>

--- a/doubleData.xlsx
+++ b/doubleData.xlsx
@@ -7,22 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="VEMS" sheetId="1" r:id="rId1"/>
-    <sheet name="CVF" sheetId="2" r:id="rId2"/>
-    <sheet name="CRF" sheetId="3" r:id="rId3"/>
-    <sheet name="CPT" sheetId="4" r:id="rId4"/>
-    <sheet name="DEMM" sheetId="5" r:id="rId5"/>
-    <sheet name="TEF" sheetId="6" r:id="rId6"/>
+    <sheet name="CV" sheetId="1" r:id="rId1"/>
+    <sheet name="VEMS" sheetId="2" r:id="rId2"/>
+    <sheet name="CVF" sheetId="3" r:id="rId3"/>
+    <sheet name="CRF-He" sheetId="4" r:id="rId4"/>
+    <sheet name="CPT" sheetId="5" r:id="rId5"/>
+    <sheet name="DEMM" sheetId="6" r:id="rId6"/>
+    <sheet name="DEM25" sheetId="7" r:id="rId7"/>
+    <sheet name="TEF" sheetId="8" r:id="rId8"/>
+    <sheet name="CRFpl" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="79">
-  <si>
-    <t>TEST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="113">
   <si>
     <t>NOM</t>
   </si>
@@ -42,45 +42,63 @@
     <t>IMC</t>
   </si>
   <si>
+    <t>CV/Pré</t>
+  </si>
+  <si>
+    <t>CV/Zscore</t>
+  </si>
+  <si>
+    <t>CV/POST effort</t>
+  </si>
+  <si>
+    <t>ABDF</t>
+  </si>
+  <si>
+    <t>29/10/2004</t>
+  </si>
+  <si>
+    <t>19.09.22</t>
+  </si>
+  <si>
+    <t>176 cm</t>
+  </si>
+  <si>
+    <t>67.0 kg</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
     <t>VEMS/Pré</t>
   </si>
   <si>
     <t>VEMS/Zscore</t>
   </si>
   <si>
-    <t>VEMS/POST BD</t>
+    <t>VEMS/POST effort</t>
   </si>
   <si>
     <t>VBEex/Pré</t>
   </si>
   <si>
+    <t>VBEex/POST effort</t>
+  </si>
+  <si>
     <t>VBEex/Post BD</t>
   </si>
   <si>
-    <t>VBe%VF/prè</t>
+    <t>VBe%VF/pré</t>
   </si>
   <si>
     <t>VBe%VF/POST BD</t>
   </si>
   <si>
-    <t>ABDF</t>
-  </si>
-  <si>
-    <t>29/10/2004</t>
-  </si>
-  <si>
-    <t>19.09.22</t>
-  </si>
-  <si>
-    <t>176 cm</t>
-  </si>
-  <si>
-    <t>67.0 kg</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>3.64</t>
   </si>
   <si>
@@ -93,16 +111,13 @@
     <t>1.61</t>
   </si>
   <si>
-    <t>blablabal</t>
-  </si>
-  <si>
     <t>CVF/Pré</t>
   </si>
   <si>
     <t>CVF/Zscore</t>
   </si>
   <si>
-    <t>CVF/POST BD</t>
+    <t>CVF/POST effort</t>
   </si>
   <si>
     <t>4.59</t>
@@ -111,18 +126,6 @@
     <t>0.37</t>
   </si>
   <si>
-    <t>CRF/Pré</t>
-  </si>
-  <si>
-    <t>CRF/Zscore</t>
-  </si>
-  <si>
-    <t>CRF/POST BD</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
     <t>CPT/Pré</t>
   </si>
   <si>
@@ -141,7 +144,7 @@
     <t>DEMM/Zscore</t>
   </si>
   <si>
-    <t>DEMM/POST BD</t>
+    <t>DEMM/POST effort</t>
   </si>
   <si>
     <t>3.27</t>
@@ -150,13 +153,28 @@
     <t>-0.92</t>
   </si>
   <si>
+    <t>DEM25/Pré</t>
+  </si>
+  <si>
+    <t>DEM25/Zscore</t>
+  </si>
+  <si>
+    <t>DEM25/POST effort</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
     <t>TEF/Pré</t>
   </si>
   <si>
     <t>TEF/Zscore</t>
   </si>
   <si>
-    <t>TEF/POST BD</t>
+    <t>TEF/POST effort</t>
   </si>
   <si>
     <t>4.85</t>
@@ -171,6 +189,12 @@
     <t>68.0 kg</t>
   </si>
   <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>-0.98</t>
+  </si>
+  <si>
     <t>3.55</t>
   </si>
   <si>
@@ -183,21 +207,21 @@
     <t>1.45</t>
   </si>
   <si>
-    <t>4.34</t>
-  </si>
-  <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>3.45</t>
-  </si>
-  <si>
     <t>6.39</t>
   </si>
   <si>
     <t>-0.63</t>
   </si>
   <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
     <t>3.96</t>
   </si>
   <si>
@@ -219,28 +243,37 @@
     <t>24</t>
   </si>
   <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>-2.37</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
     <t>1.66</t>
   </si>
   <si>
+    <t>-2.42</t>
+  </si>
+  <si>
     <t>2.05</t>
   </si>
   <si>
     <t>88</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>3.83</t>
   </si>
   <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.53</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
-    <t>83</t>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>-1.29</t>
   </si>
   <si>
     <t>3.46</t>
@@ -255,7 +288,79 @@
     <t>2.06</t>
   </si>
   <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
     <t>5.11</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>Cargol</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>129 cm</t>
+  </si>
+  <si>
+    <t>23.0 kg</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>-1.95</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>-2.20</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.48</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.13</t>
   </si>
 </sst>
 </file>
@@ -613,15 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>24</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -647,196 +752,112 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>1</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>1</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -846,15 +867,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>24</v>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -872,144 +893,171 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1019,15 +1067,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>24</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1045,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -1053,130 +1101,112 @@
       <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1186,15 +1216,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>24</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1211,139 +1241,82 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1353,15 +1326,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>24</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1379,143 +1352,238 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>52</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -1526,15 +1594,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>24</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1552,144 +1620,516 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>1</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/doubleData.xlsx
+++ b/doubleData.xlsx
@@ -11,18 +11,19 @@
     <sheet name="VEMS" sheetId="2" r:id="rId2"/>
     <sheet name="CVF" sheetId="3" r:id="rId3"/>
     <sheet name="CRF-He" sheetId="4" r:id="rId4"/>
-    <sheet name="CPT" sheetId="5" r:id="rId5"/>
+    <sheet name="CPT-he" sheetId="5" r:id="rId5"/>
     <sheet name="DEMM" sheetId="6" r:id="rId6"/>
     <sheet name="DEM25" sheetId="7" r:id="rId7"/>
     <sheet name="TEF" sheetId="8" r:id="rId8"/>
     <sheet name="CRFpl" sheetId="9" r:id="rId9"/>
+    <sheet name="CPTpl" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="119">
   <si>
     <t>NOM</t>
   </si>
@@ -126,58 +127,73 @@
     <t>0.37</t>
   </si>
   <si>
-    <t>CPT/Pré</t>
-  </si>
-  <si>
-    <t>CPT/Zscore</t>
-  </si>
-  <si>
-    <t>CPT/POST BD</t>
+    <t>CPT-he/Pré</t>
+  </si>
+  <si>
+    <t>CPT-he/Zscore</t>
+  </si>
+  <si>
+    <t>CPT-he/POST BD</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>DEMM/Pré</t>
+  </si>
+  <si>
+    <t>DEMM/Zscore</t>
+  </si>
+  <si>
+    <t>DEMM/POST effort</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>-0.92</t>
+  </si>
+  <si>
+    <t>DEM25/Pré</t>
+  </si>
+  <si>
+    <t>DEM25/Zscore</t>
+  </si>
+  <si>
+    <t>DEM25/POST effort</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>TEF/Pré</t>
+  </si>
+  <si>
+    <t>TEF/Zscore</t>
+  </si>
+  <si>
+    <t>TEF/POST effort</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>CPTpl/Pré</t>
+  </si>
+  <si>
+    <t>CPTpl/Zscore</t>
+  </si>
+  <si>
+    <t>CPTpl/POST BD</t>
   </si>
   <si>
     <t>6.43</t>
   </si>
   <si>
-    <t>DEMM/Pré</t>
-  </si>
-  <si>
-    <t>DEMM/Zscore</t>
-  </si>
-  <si>
-    <t>DEMM/POST effort</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>-0.92</t>
-  </si>
-  <si>
-    <t>DEM25/Pré</t>
-  </si>
-  <si>
-    <t>DEM25/Zscore</t>
-  </si>
-  <si>
-    <t>DEM25/POST effort</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>-1.00</t>
-  </si>
-  <si>
-    <t>TEF/Pré</t>
-  </si>
-  <si>
-    <t>TEF/Zscore</t>
-  </si>
-  <si>
-    <t>TEF/POST effort</t>
-  </si>
-  <si>
-    <t>4.85</t>
+    <t>5.87</t>
   </si>
   <si>
     <t>Identification:</t>
@@ -210,21 +226,21 @@
     <t>0.02</t>
   </si>
   <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
     <t>6.39</t>
   </si>
   <si>
-    <t>-0.63</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>-0.79</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -276,28 +292,31 @@
     <t>-1.29</t>
   </si>
   <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>5.11</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
     <t>3.46</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>1.26</t>
-  </si>
-  <si>
-    <t>2.06</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>5.11</t>
-  </si>
-  <si>
-    <t>6.13</t>
+    <t>3.57</t>
   </si>
   <si>
     <t>Cargol</t>
@@ -781,83 +800,238 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -951,113 +1125,113 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="N4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1130,83 +1304,83 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1264,19 +1438,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1284,39 +1458,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1380,11 +1554,11 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1392,28 +1566,28 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1421,28 +1595,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1450,140 +1624,27 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -1657,83 +1718,83 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1806,83 +1867,83 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1952,74 +2013,74 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2077,19 +2138,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -2097,39 +2158,39 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
